--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\4ºano-2ºSemestre\Projeto em Sistemas de Automação\Projeto\PSA2023_UR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A10FE321-ACF3-4EE2-9A77-C3126397BDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32492F4A-FD52-4DC2-AD72-37D28ABB96AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1332" windowWidth="17280" windowHeight="9960" xr2:uid="{7E492E74-924C-4C68-A19D-7AECD6417E02}"/>
+    <workbookView xWindow="1320" yWindow="2412" windowWidth="17280" windowHeight="9960" xr2:uid="{7E492E74-924C-4C68-A19D-7AECD6417E02}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -385,7 +385,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
